--- a/Calculo_Escobar.xlsx
+++ b/Calculo_Escobar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DANNYESCOBAR\Desktop\Mi_destino_Escobar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9385BD09-7C9A-439E-95EB-F431160B991A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9941D9-A069-44D2-A0F4-02D02BDE945C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="-120" windowWidth="20865" windowHeight="13740" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4740" yWindow="0" windowWidth="13545" windowHeight="13500" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja3" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>wi</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Redondeo</t>
   </si>
 </sst>
 </file>
@@ -217,7 +220,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,6 +275,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -491,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -571,6 +580,25 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1936,56 +1964,71 @@
   <dimension ref="C7:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="C7" s="37" t="s">
         <v>38</v>
       </c>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="C9" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="15">
         <v>73</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="15">
         <f>(D9*7)/100</f>
         <v>5.1100000000000003</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+      <c r="C10" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="15">
         <v>80</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="15">
         <f>(D10*3)/100</f>
         <v>2.4</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+      <c r="C11" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="E11">
+      <c r="D11" s="15"/>
+      <c r="E11" s="15">
         <f>E9+E10</f>
         <v>7.51</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E12">
+      <c r="C12" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15">
         <f>ROUND(E11,0)</f>
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C7:E8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
